--- a/PHYS 295 L3.xlsx
+++ b/PHYS 295 L3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">T_c</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">P_diff Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
 </sst>
 </file>
@@ -46,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +112,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,296 +244,406 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>-4.96</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D2" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>-0.0992</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>88.334335974</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>-3.74</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D3" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>-0.0748</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>89.554335974</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>18.5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>-0.358</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D4" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>-0.00716</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>92.936335974</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.836</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D5" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.01672</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>94.130335974</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1.257</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D6" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.02514</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>94.551335974</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>2.167</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D7" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.04334</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>95.461335974</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>2.988</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D8" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.05976</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>96.282335974</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>4.019</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D9" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.08038</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>97.313335974</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>5.034</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.10068</v>
+      <c r="A10" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>5.644</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.11288</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>98.938335974</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>5.644</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.11288</v>
+      <c r="A11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>6.349</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.12698</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>99.643335974</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>6.349</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.12698</v>
+      <c r="A12" s="1" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.1414</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>100.364335974</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.1414</v>
+      <c r="A13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.1576</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>101.174335974</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.1576</v>
+      <c r="A14" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>8.532</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.17064</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>101.826335974</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>8.532</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.17064</v>
+      <c r="A15" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>8.874</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.17748</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>102.168335974</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>8.874</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.17748</v>
+      <c r="A16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>9.332</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.18664</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>102.626335974</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>9.442</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.18884</v>
+      <c r="A17" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>9.937</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
+        <v>0.19874</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>103.231335974</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>10.084</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
-        <v>0.20168</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B18" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>10.599</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">$C$2:$C$19 * 0.02</f>
+      <c r="D18" s="1" t="n">
+        <f aca="false">$C$2:$C$18 * 0.02</f>
         <v>0.21198</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>69.9767</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">$C$2:$C$18 + $E$2:$E$18*1.33322</f>
+        <v>103.893335974</v>
       </c>
     </row>
   </sheetData>
